--- a/hebrewOutputs/hebrew82Comperation_10_Common_alpha=0.26.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_10_Common_alpha=0.26.xlsx
@@ -34,15 +34,15 @@
     <t>personal</t>
   </si>
   <si>
+    <t>רופא:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">שלום </t>
+  </si>
+  <si>
     <t>Unknown</t>
   </si>
   <si>
-    <t>רופא:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">שלום </t>
-  </si>
-  <si>
     <t>הורה:</t>
   </si>
   <si>
@@ -58,6 +58,9 @@
     <t>checks</t>
   </si>
   <si>
+    <t>[?]med</t>
+  </si>
+  <si>
     <t>כן. אא הוא בסדר.</t>
   </si>
   <si>
@@ -179,9 +182,6 @@
   </si>
   <si>
     <t>אם יש מישהו במשפחה שהיה אולי סובל מזה?</t>
-  </si>
-  <si>
-    <t>[?]med</t>
   </si>
   <si>
     <t xml:space="preserve">זה משהו שיש לו? </t>
@@ -823,21 +823,21 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -851,10 +851,10 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -865,7 +865,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -873,27 +873,27 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -901,27 +901,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -929,27 +929,27 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -957,13 +957,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -971,13 +971,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
@@ -985,13 +985,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
@@ -999,13 +999,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
@@ -1013,13 +1013,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -1041,27 +1041,27 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -1069,13 +1069,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
@@ -1083,27 +1083,27 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
@@ -1111,27 +1111,27 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
@@ -1139,27 +1139,27 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
@@ -1167,21 +1167,21 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
@@ -1190,18 +1190,18 @@
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
@@ -1209,27 +1209,27 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
@@ -1246,32 +1246,32 @@
         <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
@@ -1279,13 +1279,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
@@ -1293,30 +1293,30 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1324,10 +1324,10 @@
         <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
         <v>9</v>
@@ -1341,10 +1341,10 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1355,7 +1355,7 @@
         <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s">
         <v>9</v>
@@ -1366,13 +1366,13 @@
         <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1380,13 +1380,13 @@
         <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1397,7 +1397,7 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
@@ -1408,10 +1408,10 @@
         <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
@@ -1428,7 +1428,7 @@
         <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1436,10 +1436,10 @@
         <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D46" t="s">
         <v>9</v>
@@ -1456,7 +1456,7 @@
         <v>59</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1464,10 +1464,10 @@
         <v>67</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D48" t="s">
         <v>9</v>
@@ -1478,24 +1478,24 @@
         <v>68</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D50" t="s">
         <v>9</v>
@@ -1506,10 +1506,10 @@
         <v>69</v>
       </c>
       <c r="B51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D51" t="s">
         <v>9</v>
@@ -1520,13 +1520,13 @@
         <v>70</v>
       </c>
       <c r="B52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1537,7 +1537,7 @@
         <v>72</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D53" t="s">
         <v>9</v>
@@ -1548,24 +1548,24 @@
         <v>73</v>
       </c>
       <c r="B54" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C54" t="s">
         <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D55" t="s">
         <v>9</v>
@@ -1576,13 +1576,13 @@
         <v>74</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1590,13 +1590,13 @@
         <v>75</v>
       </c>
       <c r="B57" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1604,10 +1604,10 @@
         <v>76</v>
       </c>
       <c r="B58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D58" t="s">
         <v>9</v>
@@ -1618,10 +1618,10 @@
         <v>77</v>
       </c>
       <c r="B59" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D59" t="s">
         <v>9</v>
@@ -1632,10 +1632,10 @@
         <v>78</v>
       </c>
       <c r="B60" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D60" t="s">
         <v>9</v>
@@ -1666,21 +1666,21 @@
         <v>59</v>
       </c>
       <c r="D62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B63" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1691,7 +1691,7 @@
         <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D64" t="s">
         <v>9</v>
@@ -1699,16 +1699,16 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B65" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1716,10 +1716,10 @@
         <v>82</v>
       </c>
       <c r="B66" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D66" t="s">
         <v>9</v>
@@ -1733,10 +1733,10 @@
         <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1744,10 +1744,10 @@
         <v>84</v>
       </c>
       <c r="B68" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D68" t="s">
         <v>9</v>
@@ -1755,16 +1755,16 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B69" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C69" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1772,10 +1772,10 @@
         <v>85</v>
       </c>
       <c r="B70" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C70" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D70" t="s">
         <v>9</v>
@@ -1789,10 +1789,10 @@
         <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1800,10 +1800,10 @@
         <v>87</v>
       </c>
       <c r="B72" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D72" t="s">
         <v>9</v>
@@ -1814,10 +1814,10 @@
         <v>88</v>
       </c>
       <c r="B73" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D73" t="s">
         <v>9</v>
@@ -1834,7 +1834,7 @@
         <v>59</v>
       </c>
       <c r="D74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1842,10 +1842,10 @@
         <v>89</v>
       </c>
       <c r="B75" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D75" t="s">
         <v>9</v>
@@ -1862,7 +1862,7 @@
         <v>11</v>
       </c>
       <c r="D76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1873,10 +1873,10 @@
         <v>92</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1890,7 +1890,7 @@
         <v>11</v>
       </c>
       <c r="D78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1898,13 +1898,13 @@
         <v>95</v>
       </c>
       <c r="B79" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1912,10 +1912,10 @@
         <v>96</v>
       </c>
       <c r="B80" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D80" t="s">
         <v>9</v>
@@ -1926,13 +1926,13 @@
         <v>97</v>
       </c>
       <c r="B81" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C81" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1940,10 +1940,10 @@
         <v>98</v>
       </c>
       <c r="B82" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C82" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D82" t="s">
         <v>9</v>
@@ -1957,10 +1957,10 @@
         <v>11</v>
       </c>
       <c r="C83" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1968,10 +1968,10 @@
         <v>100</v>
       </c>
       <c r="B84" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D84" t="s">
         <v>9</v>
@@ -1985,10 +1985,10 @@
         <v>11</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1996,13 +1996,13 @@
         <v>102</v>
       </c>
       <c r="B86" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2010,10 +2010,10 @@
         <v>103</v>
       </c>
       <c r="B87" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C87" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D87" t="s">
         <v>9</v>
@@ -2024,10 +2024,10 @@
         <v>104</v>
       </c>
       <c r="B88" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D88" t="s">
         <v>9</v>
@@ -2041,10 +2041,10 @@
         <v>11</v>
       </c>
       <c r="C89" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D89" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2055,7 +2055,7 @@
         <v>13</v>
       </c>
       <c r="C90" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D90" t="s">
         <v>9</v>
@@ -2066,10 +2066,10 @@
         <v>107</v>
       </c>
       <c r="B91" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D91" t="s">
         <v>9</v>
@@ -2086,7 +2086,7 @@
         <v>11</v>
       </c>
       <c r="D92" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2097,7 +2097,7 @@
         <v>13</v>
       </c>
       <c r="C93" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D93" t="s">
         <v>9</v>
@@ -2114,7 +2114,7 @@
         <v>11</v>
       </c>
       <c r="D94" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2122,10 +2122,10 @@
         <v>111</v>
       </c>
       <c r="B95" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C95" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D95" t="s">
         <v>9</v>
@@ -2139,10 +2139,10 @@
         <v>11</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2150,13 +2150,13 @@
         <v>113</v>
       </c>
       <c r="B97" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C97" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2164,10 +2164,10 @@
         <v>114</v>
       </c>
       <c r="B98" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C98" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D98" t="s">
         <v>9</v>
@@ -2178,13 +2178,13 @@
         <v>115</v>
       </c>
       <c r="B99" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C99" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2195,7 +2195,7 @@
         <v>117</v>
       </c>
       <c r="C100" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D100" t="s">
         <v>9</v>
@@ -2206,13 +2206,13 @@
         <v>118</v>
       </c>
       <c r="B101" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C101" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2223,10 +2223,10 @@
         <v>120</v>
       </c>
       <c r="C102" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D102" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2234,13 +2234,13 @@
         <v>121</v>
       </c>
       <c r="B103" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C103" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D103" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2248,13 +2248,13 @@
         <v>122</v>
       </c>
       <c r="B104" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C104" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D104" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2262,10 +2262,10 @@
         <v>123</v>
       </c>
       <c r="B105" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C105" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D105" t="s">
         <v>9</v>
@@ -2276,10 +2276,10 @@
         <v>124</v>
       </c>
       <c r="B106" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>117</v>
       </c>
       <c r="D106" t="s">
         <v>9</v>
@@ -2290,13 +2290,13 @@
         <v>125</v>
       </c>
       <c r="B107" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C107" t="s">
         <v>11</v>
       </c>
       <c r="D107" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2304,10 +2304,10 @@
         <v>126</v>
       </c>
       <c r="B108" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C108" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D108" t="s">
         <v>9</v>
@@ -2318,10 +2318,10 @@
         <v>127</v>
       </c>
       <c r="B109" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C109" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D109" t="s">
         <v>9</v>
@@ -2332,10 +2332,10 @@
         <v>128</v>
       </c>
       <c r="B110" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C110" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D110" t="s">
         <v>9</v>
@@ -2349,21 +2349,21 @@
         <v>130</v>
       </c>
       <c r="C111" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D111" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B112" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C112" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D112" t="s">
         <v>9</v>
@@ -2377,10 +2377,10 @@
         <v>130</v>
       </c>
       <c r="C113" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D113" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2388,10 +2388,10 @@
         <v>132</v>
       </c>
       <c r="B114" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C114" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D114" t="s">
         <v>9</v>
@@ -2405,7 +2405,7 @@
         <v>92</v>
       </c>
       <c r="C115" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D115" t="s">
         <v>9</v>
@@ -2416,10 +2416,10 @@
         <v>134</v>
       </c>
       <c r="B116" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C116" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D116" t="s">
         <v>9</v>
@@ -2433,10 +2433,10 @@
         <v>11</v>
       </c>
       <c r="C117" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D117" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2447,7 +2447,7 @@
         <v>92</v>
       </c>
       <c r="C118" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D118" t="s">
         <v>9</v>
@@ -2464,7 +2464,7 @@
         <v>59</v>
       </c>
       <c r="D119" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2472,10 +2472,10 @@
         <v>138</v>
       </c>
       <c r="B120" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C120" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D120" t="s">
         <v>9</v>
@@ -2486,13 +2486,13 @@
         <v>139</v>
       </c>
       <c r="B121" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C121" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D121" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2503,7 +2503,7 @@
         <v>117</v>
       </c>
       <c r="C122" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D122" t="s">
         <v>9</v>
@@ -2514,13 +2514,13 @@
         <v>141</v>
       </c>
       <c r="B123" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C123" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D123" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2531,7 +2531,7 @@
         <v>59</v>
       </c>
       <c r="C124" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D124" t="s">
         <v>9</v>
@@ -2545,7 +2545,7 @@
         <v>72</v>
       </c>
       <c r="C125" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D125" t="s">
         <v>9</v>
@@ -2559,10 +2559,10 @@
         <v>145</v>
       </c>
       <c r="C126" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D126" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2573,10 +2573,10 @@
         <v>145</v>
       </c>
       <c r="C127" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D127" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2587,7 +2587,7 @@
         <v>148</v>
       </c>
       <c r="C128" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D128" t="s">
         <v>9</v>
@@ -2601,10 +2601,10 @@
         <v>92</v>
       </c>
       <c r="C129" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
